--- a/data/unchecked/manual_collect/china/xinjiang/xinjiangCaseStatistics_20200306.xlsx
+++ b/data/unchecked/manual_collect/china/xinjiang/xinjiangCaseStatistics_20200306.xlsx
@@ -530,7 +530,7 @@
 目前尚有904人正在接受医学观察。</t>
   </si>
   <si>
-    <t>http://www.xjhfpc.gov.cn/info/2070/19491.htm</t>
+    <t>http://www.xjhfpc.gov.cn/info/2070/19471.htm</t>
   </si>
   <si>
     <t>手动</t>
@@ -10288,12 +10288,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ hh:mm"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm:ss;@"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -10390,28 +10390,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -10421,31 +10399,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10466,8 +10421,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10482,21 +10482,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
@@ -10504,9 +10489,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10539,7 +10539,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10557,13 +10617,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10575,13 +10647,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10593,37 +10671,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10635,73 +10695,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10713,7 +10713,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10727,21 +10727,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -10752,6 +10737,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -10799,6 +10799,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -10806,21 +10821,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10833,7 +10833,7 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10842,16 +10842,16 @@
     <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10860,73 +10860,91 @@
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10935,37 +10953,19 @@
     <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -11004,17 +11004,17 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -11361,8 +11361,8 @@
   <sheetPr/>
   <dimension ref="A1:AN19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AI12" sqref="AI12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9090909090909" defaultRowHeight="15.6"/>
@@ -11532,10 +11532,10 @@
         <v>40</v>
       </c>
       <c r="C2" s="17">
+        <v>43896</v>
+      </c>
+      <c r="D2" s="17">
         <v>43897</v>
-      </c>
-      <c r="D2" s="17">
-        <v>43898</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>41</v>
@@ -11549,7 +11549,9 @@
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
+      <c r="K2" s="16">
+        <v>1</v>
+      </c>
       <c r="L2" s="16"/>
       <c r="M2" s="16">
         <v>23</v>
@@ -11562,7 +11564,7 @@
         <v>44</v>
       </c>
       <c r="T2" s="13">
-        <v>43898.3527777778</v>
+        <v>43897.3506944444</v>
       </c>
       <c r="U2" s="19" t="s">
         <v>45</v>
@@ -11572,7 +11574,7 @@
       </c>
       <c r="W2" s="13"/>
       <c r="Z2" s="13">
-        <v>43898.3826388889</v>
+        <v>43897.3826388889</v>
       </c>
       <c r="AA2" s="12" t="s">
         <v>47</v>
@@ -11598,10 +11600,10 @@
         <v>40</v>
       </c>
       <c r="C3" s="17">
+        <v>43896</v>
+      </c>
+      <c r="D3" s="17">
         <v>43897</v>
-      </c>
-      <c r="D3" s="17">
-        <v>43898</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>41</v>
@@ -11628,7 +11630,7 @@
         <v>44</v>
       </c>
       <c r="T3" s="13">
-        <v>43898.3527777778</v>
+        <v>43897.3506944444</v>
       </c>
       <c r="U3" s="19" t="s">
         <v>45</v>
@@ -11638,7 +11640,7 @@
       </c>
       <c r="W3" s="13"/>
       <c r="Z3" s="13">
-        <v>43898.3826388889</v>
+        <v>43897.3826388889</v>
       </c>
       <c r="AA3" s="12" t="s">
         <v>47</v>
@@ -11664,10 +11666,10 @@
         <v>40</v>
       </c>
       <c r="C4" s="17">
+        <v>43896</v>
+      </c>
+      <c r="D4" s="17">
         <v>43897</v>
-      </c>
-      <c r="D4" s="17">
-        <v>43898</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>41</v>
@@ -11694,7 +11696,7 @@
         <v>44</v>
       </c>
       <c r="T4" s="13">
-        <v>43898.3527777778</v>
+        <v>43897.3506944444</v>
       </c>
       <c r="U4" s="19" t="s">
         <v>45</v>
@@ -11704,7 +11706,7 @@
       </c>
       <c r="W4" s="13"/>
       <c r="Z4" s="13">
-        <v>43898.3826388889</v>
+        <v>43897.3826388889</v>
       </c>
       <c r="AA4" s="12" t="s">
         <v>47</v>
@@ -11730,10 +11732,10 @@
         <v>40</v>
       </c>
       <c r="C5" s="17">
+        <v>43896</v>
+      </c>
+      <c r="D5" s="17">
         <v>43897</v>
-      </c>
-      <c r="D5" s="17">
-        <v>43898</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>41</v>
@@ -11760,7 +11762,7 @@
         <v>44</v>
       </c>
       <c r="T5" s="13">
-        <v>43898.3527777778</v>
+        <v>43897.3506944444</v>
       </c>
       <c r="U5" s="19" t="s">
         <v>45</v>
@@ -11770,7 +11772,7 @@
       </c>
       <c r="W5" s="13"/>
       <c r="Z5" s="13">
-        <v>43898.3826388889</v>
+        <v>43897.3826388889</v>
       </c>
       <c r="AA5" s="12" t="s">
         <v>47</v>
@@ -11796,10 +11798,10 @@
         <v>40</v>
       </c>
       <c r="C6" s="17">
+        <v>43896</v>
+      </c>
+      <c r="D6" s="17">
         <v>43897</v>
-      </c>
-      <c r="D6" s="17">
-        <v>43898</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>41</v>
@@ -11826,7 +11828,7 @@
         <v>44</v>
       </c>
       <c r="T6" s="13">
-        <v>43898.3527777778</v>
+        <v>43897.3506944444</v>
       </c>
       <c r="U6" s="19" t="s">
         <v>45</v>
@@ -11836,7 +11838,7 @@
       </c>
       <c r="W6" s="13"/>
       <c r="Z6" s="13">
-        <v>43898.3826388889</v>
+        <v>43897.3826388889</v>
       </c>
       <c r="AA6" s="12" t="s">
         <v>47</v>
@@ -11862,10 +11864,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="17">
+        <v>43896</v>
+      </c>
+      <c r="D7" s="17">
         <v>43897</v>
-      </c>
-      <c r="D7" s="17">
-        <v>43898</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>41</v>
@@ -11879,9 +11881,7 @@
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
-      <c r="K7" s="16">
-        <v>1</v>
-      </c>
+      <c r="K7" s="16"/>
       <c r="L7" s="16"/>
       <c r="M7" s="16">
         <v>3</v>
@@ -11894,7 +11894,7 @@
         <v>44</v>
       </c>
       <c r="T7" s="13">
-        <v>43898.3527777778</v>
+        <v>43897.3506944444</v>
       </c>
       <c r="U7" s="19" t="s">
         <v>45</v>
@@ -11904,7 +11904,7 @@
       </c>
       <c r="W7" s="13"/>
       <c r="Z7" s="13">
-        <v>43898.3826388889</v>
+        <v>43897.3826388889</v>
       </c>
       <c r="AA7" s="12" t="s">
         <v>47</v>
@@ -11930,10 +11930,10 @@
         <v>55</v>
       </c>
       <c r="C8" s="17">
+        <v>43896</v>
+      </c>
+      <c r="D8" s="17">
         <v>43897</v>
-      </c>
-      <c r="D8" s="17">
-        <v>43898</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>41</v>
@@ -11954,7 +11954,7 @@
       </c>
       <c r="N8" s="16"/>
       <c r="O8" s="16">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q8" s="16"/>
       <c r="R8" s="16"/>
@@ -11962,7 +11962,7 @@
         <v>44</v>
       </c>
       <c r="T8" s="13">
-        <v>43898.3527777778</v>
+        <v>43897.3506944444</v>
       </c>
       <c r="U8" s="19" t="s">
         <v>45</v>
@@ -11972,7 +11972,7 @@
       </c>
       <c r="W8" s="13"/>
       <c r="Z8" s="13">
-        <v>43898.3826388889</v>
+        <v>43897.3826388889</v>
       </c>
       <c r="AA8" s="12" t="s">
         <v>47</v>
@@ -11998,10 +11998,10 @@
         <v>40</v>
       </c>
       <c r="C9" s="17">
+        <v>43896</v>
+      </c>
+      <c r="D9" s="17">
         <v>43897</v>
-      </c>
-      <c r="D9" s="17">
-        <v>43898</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>41</v>
@@ -12028,7 +12028,7 @@
         <v>44</v>
       </c>
       <c r="T9" s="13">
-        <v>43898.3527777778</v>
+        <v>43897.3506944444</v>
       </c>
       <c r="U9" s="19" t="s">
         <v>45</v>
@@ -12038,7 +12038,7 @@
       </c>
       <c r="W9" s="13"/>
       <c r="Z9" s="13">
-        <v>43898.3826388889</v>
+        <v>43897.3826388889</v>
       </c>
       <c r="AA9" s="12" t="s">
         <v>47</v>
@@ -12064,10 +12064,10 @@
         <v>40</v>
       </c>
       <c r="C10" s="17">
+        <v>43896</v>
+      </c>
+      <c r="D10" s="17">
         <v>43897</v>
-      </c>
-      <c r="D10" s="17">
-        <v>43898</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>41</v>
@@ -12094,7 +12094,7 @@
         <v>44</v>
       </c>
       <c r="T10" s="13">
-        <v>43898.3527777778</v>
+        <v>43897.3506944444</v>
       </c>
       <c r="U10" s="19" t="s">
         <v>45</v>
@@ -12104,7 +12104,7 @@
       </c>
       <c r="W10" s="13"/>
       <c r="Z10" s="13">
-        <v>43898.3826388889</v>
+        <v>43897.3826388889</v>
       </c>
       <c r="AA10" s="12" t="s">
         <v>47</v>
@@ -12130,10 +12130,10 @@
         <v>40</v>
       </c>
       <c r="C11" s="17">
+        <v>43896</v>
+      </c>
+      <c r="D11" s="17">
         <v>43897</v>
-      </c>
-      <c r="D11" s="17">
-        <v>43898</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>41</v>
@@ -12160,7 +12160,7 @@
         <v>44</v>
       </c>
       <c r="T11" s="13">
-        <v>43898.3527777778</v>
+        <v>43897.3506944444</v>
       </c>
       <c r="U11" s="19" t="s">
         <v>45</v>
@@ -12170,7 +12170,7 @@
       </c>
       <c r="W11" s="13"/>
       <c r="Z11" s="13">
-        <v>43898.3826388889</v>
+        <v>43897.3826388889</v>
       </c>
       <c r="AA11" s="12" t="s">
         <v>47</v>
@@ -12196,10 +12196,10 @@
         <v>40</v>
       </c>
       <c r="C12" s="17">
+        <v>43896</v>
+      </c>
+      <c r="D12" s="17">
         <v>43897</v>
-      </c>
-      <c r="D12" s="17">
-        <v>43898</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>41</v>
@@ -12226,7 +12226,7 @@
         <v>44</v>
       </c>
       <c r="T12" s="13">
-        <v>43898.3527777778</v>
+        <v>43897.3506944444</v>
       </c>
       <c r="U12" s="19" t="s">
         <v>45</v>
@@ -12236,7 +12236,7 @@
       </c>
       <c r="W12" s="13"/>
       <c r="Z12" s="13">
-        <v>43898.3826388889</v>
+        <v>43897.3826388889</v>
       </c>
       <c r="AA12" s="12" t="s">
         <v>47</v>
@@ -12262,10 +12262,10 @@
         <v>40</v>
       </c>
       <c r="C13" s="17">
+        <v>43896</v>
+      </c>
+      <c r="D13" s="17">
         <v>43897</v>
-      </c>
-      <c r="D13" s="17">
-        <v>43898</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>41</v>
@@ -12292,7 +12292,7 @@
         <v>44</v>
       </c>
       <c r="T13" s="13">
-        <v>43898.3527777778</v>
+        <v>43897.3506944444</v>
       </c>
       <c r="U13" s="19" t="s">
         <v>45</v>
@@ -12302,7 +12302,7 @@
       </c>
       <c r="W13" s="13"/>
       <c r="Z13" s="13">
-        <v>43898.3826388889</v>
+        <v>43897.3826388889</v>
       </c>
       <c r="AA13" s="12" t="s">
         <v>47</v>
@@ -12328,10 +12328,10 @@
         <v>40</v>
       </c>
       <c r="C14" s="17">
+        <v>43896</v>
+      </c>
+      <c r="D14" s="17">
         <v>43897</v>
-      </c>
-      <c r="D14" s="17">
-        <v>43898</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>41</v>
@@ -12358,7 +12358,7 @@
         <v>44</v>
       </c>
       <c r="T14" s="13">
-        <v>43898.3527777778</v>
+        <v>43897.3506944444</v>
       </c>
       <c r="U14" s="19" t="s">
         <v>45</v>
@@ -12368,7 +12368,7 @@
       </c>
       <c r="W14" s="13"/>
       <c r="Z14" s="13">
-        <v>43898.3826388889</v>
+        <v>43897.3826388889</v>
       </c>
       <c r="AA14" s="12" t="s">
         <v>47</v>
@@ -12394,10 +12394,10 @@
         <v>55</v>
       </c>
       <c r="C15" s="17">
+        <v>43896</v>
+      </c>
+      <c r="D15" s="17">
         <v>43897</v>
-      </c>
-      <c r="D15" s="17">
-        <v>43898</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>41</v>
@@ -12419,7 +12419,7 @@
         <v>44</v>
       </c>
       <c r="T15" s="13">
-        <v>43898.3527777778</v>
+        <v>43897.3506944444</v>
       </c>
       <c r="U15" s="19" t="s">
         <v>45</v>
@@ -12429,7 +12429,7 @@
       </c>
       <c r="W15" s="13"/>
       <c r="Z15" s="13">
-        <v>43898.3826388889</v>
+        <v>43897.3826388889</v>
       </c>
       <c r="AA15" s="12" t="s">
         <v>47</v>
@@ -12461,20 +12461,11 @@
     </row>
   </sheetData>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG1048576 AM2:AM1048576">
-      <formula1>"核查通过,核查未通过"</formula1>
-    </dataValidation>
     <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:J2 L2:R2 I3:J3 L3:R3 K2:K5 K6:K7 K8:K15 I4:J15 L4:R15 I16:R1048576">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2:B1048576">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576">
-      <formula1>"未核查,已核查"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA1048576 AE2:AE1048576 AK2:AK1048576">
-      <formula1>"手动,自动"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="F2:F15">
       <formula1>[1]中国各省市区县数据!#REF!</formula1>
@@ -12485,12 +12476,21 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="F16:F1048576">
       <formula1>中国各省市区县数据!$E$2:$E$36</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576">
+      <formula1>"未核查,已核查"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
       <formula1>INDIRECT($F2)</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG1048576 AM2:AM1048576">
+      <formula1>"核查通过,核查未通过"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA1048576 AE2:AE1048576 AK2:AK1048576">
+      <formula1>"手动,自动"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="V2" r:id="rId1" display="http://www.xjhfpc.gov.cn/info/2070/19491.htm" tooltip="http://www.xjhfpc.gov.cn/info/2070/19491.htm"/>
+    <hyperlink ref="V2" r:id="rId1" display="http://www.xjhfpc.gov.cn/info/2070/19471.htm" tooltip="http://www.xjhfpc.gov.cn/info/2070/19471.htm"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
